--- a/01_Program/Action_Decision_Information_Tracker.xlsx
+++ b/01_Program/Action_Decision_Information_Tracker.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6387618-5A7A-4891-B7CB-D7CDE4DFF42F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -15,12 +16,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
   <si>
     <t>Topic</t>
   </si>
@@ -196,11 +197,76 @@
   <si>
     <t xml:space="preserve">Changed the Program Structure on github. Created folders for indvidual topic owners to for detailed content and execution plan update. The scope document should be limited now only to scope. </t>
   </si>
+  <si>
+    <t>ADI-009</t>
+  </si>
+  <si>
+    <t>Hackathon</t>
+  </si>
+  <si>
+    <t>Need to finalize the coding language for the hackathon after checking with the faculty</t>
+  </si>
+  <si>
+    <t>Krishnan</t>
+  </si>
+  <si>
+    <t>Plan is to use Python but we would like to check this with the faculty</t>
+  </si>
+  <si>
+    <t>ADI-010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to get email ids of all the faculty members so that we can get contact them on a </t>
+  </si>
+  <si>
+    <t>Need to draft a communication on the overall plan and send it batch 94 whats app group as an FI</t>
+  </si>
+  <si>
+    <t>ADI-011</t>
+  </si>
+  <si>
+    <t>Finalize the hackathon platform</t>
+  </si>
+  <si>
+    <t>Krishnan/Kiran</t>
+  </si>
+  <si>
+    <t>Looking at hackerrank to see if it meets all the requirements. Planning to do a dry run in next week's meeting</t>
+  </si>
+  <si>
+    <t>ADI-012</t>
+  </si>
+  <si>
+    <t>Content, frequency and timelines for the coding challenges</t>
+  </si>
+  <si>
+    <t>Content - Plan to use pre-existing coding challenges available in hackerrank for the individual assignments. Will focus on open ended problems for the group hackathons.
+Duration: 24-48 hours during the weekend
+Frequency: 
+a. Individual assignments - Once every 2 weeks
+b. Group hackathons - Once every month
+Schedule: 
+a. Individual assignments from Aug 2020
+b. Group assignments from Oct 2020 assuming students are back in the campus by then</t>
+  </si>
+  <si>
+    <t>ADI-013</t>
+  </si>
+  <si>
+    <t>Incentives for the hackathons</t>
+  </si>
+  <si>
+    <t>Possible options:
+1. Cash/e-vouchers
+2. Certificates from department
+3. LinkedIn recommendations
+4. Opportunity to present the solution to the dept</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -384,6 +450,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -419,6 +502,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -594,28 +694,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" customWidth="1"/>
+    <col min="3" max="3" width="35.81640625" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>36</v>
       </c>
@@ -650,7 +750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="35.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -684,7 +784,7 @@
       </c>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="35.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
@@ -698,21 +798,25 @@
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="G3" s="3">
         <v>44001</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="H3" s="3">
+        <v>44015</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="24.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
@@ -740,7 +844,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="58.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
@@ -772,7 +876,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
@@ -802,7 +906,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="36.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="35.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>42</v>
       </c>
@@ -832,7 +936,7 @@
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="35.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>43</v>
       </c>
@@ -862,7 +966,7 @@
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="60.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="58.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>45</v>
       </c>
@@ -890,77 +994,159 @@
       <c r="K9" s="2"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+    <row r="10" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="3">
+        <v>44008</v>
+      </c>
+      <c r="H10" s="3">
+        <v>44022</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+    <row r="11" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="G11" s="3">
+        <v>44009</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+    <row r="12" spans="1:12" ht="35.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="3">
+        <v>44008</v>
+      </c>
+      <c r="H12" s="3">
+        <v>44022</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+    <row r="13" spans="1:12" ht="162" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="3">
+        <v>44008</v>
+      </c>
+      <c r="H13" s="3">
+        <v>44022</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+    <row r="14" spans="1:12" ht="70" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="G14" s="3">
+        <v>44008</v>
+      </c>
+      <c r="H14" s="3">
+        <v>44022</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -974,7 +1160,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -988,7 +1174,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1002,7 +1188,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1016,7 +1202,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1030,7 +1216,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1044,7 +1230,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1058,7 +1244,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1072,7 +1258,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1093,13 +1279,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>'Meta-Data'!$A$2:$A$4</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D23</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>'Meta-Data'!$A$7:$A$12</xm:f>
           </x14:formula1>
@@ -1112,74 +1298,75 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/01_Program/Action_Decision_Information_Tracker.xlsx
+++ b/01_Program/Action_Decision_Information_Tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6387618-5A7A-4891-B7CB-D7CDE4DFF42F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D2D0C7-9AE5-4134-BC1D-3F8E8E120F36}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="70">
   <si>
     <t>Topic</t>
   </si>
@@ -133,9 +133,6 @@
   <si>
     <t>Project created on github
 https://github.com/kiranmak/pucsd-levelup</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>Communication</t>
@@ -169,9 +166,6 @@
   </si>
   <si>
     <t>ADI-001</t>
-  </si>
-  <si>
-    <t>ADI-002</t>
   </si>
   <si>
     <t>ADI-003</t>
@@ -261,6 +255,30 @@
 2. Certificates from department
 3. LinkedIn recommendations
 4. Opportunity to present the solution to the dept</t>
+  </si>
+  <si>
+    <t>Ju;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communication sent out on WhatsApp group </t>
+  </si>
+  <si>
+    <t>ADI-014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan to have a kick-off meeting with students in the 1st week of August (7th or 8th Aug)
+TODO:
+1. Connect with Bhavesh/placement cell to work out the logistics
+2. Prepare the content and send for review </t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Reach out to other batch mates to see if they can be part of this group and contribute actively</t>
   </si>
 </sst>
 </file>
@@ -697,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -717,7 +735,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="39" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -752,7 +770,7 @@
     </row>
     <row r="2" spans="1:12" ht="35.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>23</v>
@@ -786,7 +804,7 @@
     </row>
     <row r="3" spans="1:12" ht="35.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>21</v>
@@ -798,10 +816,10 @@
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G3" s="3">
         <v>44001</v>
@@ -810,49 +828,57 @@
         <v>44015</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" s="3">
+        <v>44017</v>
+      </c>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="81.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G4" s="3">
         <v>44001</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="H4" s="3">
+        <v>44036</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" ht="58.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -861,7 +887,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" s="3">
         <v>44001</v>
@@ -870,7 +896,7 @@
         <v>44027</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -878,13 +904,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -893,7 +919,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="3">
         <v>44001</v>
@@ -908,13 +934,13 @@
     </row>
     <row r="7" spans="1:12" ht="35.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -938,13 +964,13 @@
     </row>
     <row r="8" spans="1:12" ht="35.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -968,13 +994,13 @@
     </row>
     <row r="9" spans="1:12" ht="58.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -983,7 +1009,7 @@
         <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" s="3">
         <v>44008</v>
@@ -996,13 +1022,13 @@
     </row>
     <row r="10" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
@@ -1011,7 +1037,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G10" s="3">
         <v>44008</v>
@@ -1020,7 +1046,7 @@
         <v>44022</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -1028,13 +1054,13 @@
     </row>
     <row r="11" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -1054,13 +1080,13 @@
     </row>
     <row r="12" spans="1:12" ht="35.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>11</v>
@@ -1069,7 +1095,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G12" s="3">
         <v>44008</v>
@@ -1078,7 +1104,7 @@
         <v>44022</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1086,13 +1112,13 @@
     </row>
     <row r="13" spans="1:12" ht="162" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>11</v>
@@ -1101,7 +1127,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G13" s="3">
         <v>44008</v>
@@ -1110,7 +1136,7 @@
         <v>44022</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1118,13 +1144,13 @@
     </row>
     <row r="14" spans="1:12" ht="70" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>11</v>
@@ -1140,21 +1166,37 @@
         <v>44022</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+    <row r="15" spans="1:12" ht="24" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="3">
+        <v>44017</v>
+      </c>
+      <c r="H15" s="3">
+        <v>44031</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
